--- a/malabaresFebrero.xlsx
+++ b/malabaresFebrero.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fm08472\Contacts\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fm08472\Downloads\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">NECESITAMOS </t>
   </si>
@@ -48,15 +48,9 @@
     <t>SUELDO FEB</t>
   </si>
   <si>
-    <t>HSBC</t>
-  </si>
-  <si>
     <t>FACU</t>
   </si>
   <si>
-    <t>RIO</t>
-  </si>
-  <si>
     <t>CLAUDIA</t>
   </si>
   <si>
@@ -103,6 +97,9 @@
   </si>
   <si>
     <t>1.355,73</t>
+  </si>
+  <si>
+    <t>BANCOS</t>
   </si>
 </sst>
 </file>
@@ -263,16 +260,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -281,21 +274,68 @@
     <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -583,7 +623,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,172 +646,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="10">
         <v>55000</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="19"/>
+      <c r="G1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="19"/>
+      <c r="M1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="19"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="12">
+        <f>N6</f>
+        <v>12351</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6">
+        <f>$K$6</f>
+        <v>13200</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="6">
+        <v>14500</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="12">
+        <f>$H$6</f>
+        <v>18200</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="G1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="18"/>
-      <c r="M1" s="17" t="s">
+      <c r="E3" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1300</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="6">
+        <f>Febrero!$H$1</f>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="M4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="16">
-        <v>12000</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="10">
-        <v>4000</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10">
-        <f>$K$6</f>
-        <v>16200</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="10">
-        <v>17500</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="10">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="16">
-        <f>$H$6</f>
-        <v>21200</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="10">
-        <v>6000</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="10">
-        <v>5000</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1300</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="10">
-        <v>3000</v>
+      <c r="N4" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="10"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="10"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <f>B1-B2-B3</f>
-        <v>21800</v>
-      </c>
-      <c r="D6" s="20" t="s">
+        <v>24449</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="15">
         <f>SUM(E2:E3)</f>
         <v>10000</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="15">
         <f>SUM(H2:H5)</f>
-        <v>21200</v>
+        <v>18200</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="15">
         <f>K2-K3</f>
-        <v>16200</v>
-      </c>
-      <c r="M6" s="20" t="s">
+        <v>13200</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="15">
         <f>SUM(N2:N5)</f>
-        <v>12000</v>
+        <v>12351</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D13" s="4">
         <v>22000</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>23</v>
+      <c r="E13" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -781,8 +823,8 @@
       <c r="D15" s="4">
         <v>10000</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>24</v>
+      <c r="E15" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -792,8 +834,8 @@
       <c r="D17" s="4">
         <v>20000</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>25</v>
+      <c r="E17" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -816,20 +858,20 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="25"/>
+    <col min="4" max="4" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="25"/>
+    <col min="7" max="7" width="8.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -837,78 +879,78 @@
         <v>2</v>
       </c>
       <c r="B1" s="23">
-        <v>7000</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="35">
+        <v>3000</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="27">
+        <f>E5-B3</f>
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8">
-        <v>6620</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="5">
-        <f>E5-B3</f>
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="B2" s="29">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="32">
+        <f>SUM(B1:B2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="24">
-        <v>2580</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="19" t="s">
+      <c r="E3" s="30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="E4" s="30">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="25">
-        <f>SUM(B1:B2)</f>
-        <v>9580</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="21">
+      <c r="E5" s="34">
         <f>SUM(E1:E4)</f>
-        <v>11086</v>
+        <v>4851</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>